--- a/Sensor_calibration/ДСГ10.xlsx
+++ b/Sensor_calibration/ДСГ10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\Калибровка рабочего датчика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69DA9D8-297D-4DB2-9CBC-34E4A3348F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497100EB-AA55-4720-9342-6652E8D49393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,6 +677,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'05-17-2023_10-37-04_Intensity'!$M:$M</c:f>
@@ -2023,7 +2068,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
